--- a/2025 data cabang alat berat.xlsx
+++ b/2025 data cabang alat berat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0292E305-B5CC-467A-B8B5-6E26D6C60609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A525D2-3646-418E-BAEB-0B199C23131E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{11998761-D349-4F6C-B0B3-8EFC74D3FCB8}"/>
   </bookViews>
@@ -19,13 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -222,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6704" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6750" uniqueCount="155">
   <si>
     <t>CURRSTATE</t>
   </si>
@@ -549,6 +542,144 @@
   </si>
   <si>
     <t>MIT</t>
+  </si>
+  <si>
+    <t>AMBON</t>
+  </si>
+  <si>
+    <t>ARAR</t>
+  </si>
+  <si>
+    <t>BAU BAU</t>
+  </si>
+  <si>
+    <t>BIAK</t>
+  </si>
+  <si>
+    <t>BITUNG</t>
+  </si>
+  <si>
+    <t>BENGKULU</t>
+  </si>
+  <si>
+    <t>BUNGKU</t>
+  </si>
+  <si>
+    <t>BATULICIN</t>
+  </si>
+  <si>
+    <t>BELAWAN</t>
+  </si>
+  <si>
+    <t>BANJARMASIN</t>
+  </si>
+  <si>
+    <t>BOEPINANG</t>
+  </si>
+  <si>
+    <t>BALIKPAPAN</t>
+  </si>
+  <si>
+    <t>BERAU</t>
+  </si>
+  <si>
+    <t>BANDA ACEH</t>
+  </si>
+  <si>
+    <t>BATAM</t>
+  </si>
+  <si>
+    <t>BUATAN</t>
+  </si>
+  <si>
+    <t>DOBO</t>
+  </si>
+  <si>
+    <t>FAK FAK</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>JAKARTA</t>
+  </si>
+  <si>
+    <t>JAYAPURA</t>
+  </si>
+  <si>
+    <t>KAIMANA</t>
+  </si>
+  <si>
+    <t>KENDARI</t>
+  </si>
+  <si>
+    <t>KETAPANG</t>
+  </si>
+  <si>
+    <t>KUALA TANJUNG</t>
+  </si>
+  <si>
+    <t>MERAUKE</t>
+  </si>
+  <si>
+    <t>MAKASSAR</t>
+  </si>
+  <si>
+    <t>MANOKWARI</t>
+  </si>
+  <si>
+    <t>NABIRE</t>
+  </si>
+  <si>
+    <t>NUNUKAN</t>
+  </si>
+  <si>
+    <t>PALU</t>
+  </si>
+  <si>
+    <t>PADANG</t>
+  </si>
+  <si>
+    <t>PALEMBANG</t>
+  </si>
+  <si>
+    <t>PONTIANAK</t>
+  </si>
+  <si>
+    <t>PERAWANG</t>
+  </si>
+  <si>
+    <t>SURABAYA</t>
+  </si>
+  <si>
+    <t>SAMARINDA</t>
+  </si>
+  <si>
+    <t>SEMARANG</t>
+  </si>
+  <si>
+    <t>SAMPIT</t>
+  </si>
+  <si>
+    <t>SORONG</t>
+  </si>
+  <si>
+    <t>SERUI</t>
+  </si>
+  <si>
+    <t>TANGKIANG</t>
+  </si>
+  <si>
+    <t>TIMIKA</t>
+  </si>
+  <si>
+    <t>TARAKAN</t>
+  </si>
+  <si>
+    <t>TERNATE</t>
+  </si>
+  <si>
+    <t>TUAL</t>
   </si>
 </sst>
 </file>
@@ -900,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0084938-BEFA-495F-B9CE-06C9C86274F1}">
-  <dimension ref="A1:KW1049"/>
+  <dimension ref="A1:KW1096"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1097" sqref="A1097"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -113091,6 +113222,236 @@
         <v>11994</v>
       </c>
     </row>
+    <row r="1051" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
